--- a/medicine/Soins infirmiers et profession infirmière/L'Homme_étoilé/L'Homme_étoilé.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/L'Homme_étoilé/L'Homme_étoilé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Homme_%C3%A9toil%C3%A9</t>
+          <t>L'Homme_étoilé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Homme étoilé, de son vrai prénom Xavier, né en 1984 en Belgique, est un infirmier, actif sur les réseaux sociaux et auteur belge de romans graphiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Homme_%C3%A9toil%C3%A9</t>
+          <t>L'Homme_étoilé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xavier connu de son seul prénom naît le 28 octobre 1984 en Belgique[1]. Il est originaire de Bruxelles[2]. Il est nourri à la bande dessinée[3]. 
-Il est étudiant en psychologie[4], puis il change d'orientation[5].
-Il a le corps couvert de tatouages[4]. Il a ainsi des étoiles sur les bras, en hommage à son arrière-grand-mère ; le prénom de sa fille est sur la main gauche ; les membres de Queen sur les phalanges droites ; un bras consacré à Joseph Merrick, connu par le surnom d’Elephant Man[4]. Il doit son nom de plume à une patiente qui le surnomme ainsi à cause de ses bras tatoués[6].
-Depuis 2017, il publie sur Instagram des tranches de vie de son quotidien avec ses patients[7]. Des moments de joie, partagés avec eux et leurs proches, par la musique, une blague qui réussit à leur donner le sourire ou les faire rire[7]... Il vise à casser les clichés qui collent aux soins palliatifs : « Les soins palliatifs font peur parce que le grand public est mal informé. C’est uniquement associé à la mort. Avant d’y travailler, je m’en faisais la même représentation, 'dans quel mouroir sinistre je vais atterrir ?' Mais beaucoup de patients y séjournent pour équilibrer un traitement et rentrent chez eux[7]. »
-Lorsqu'il explique qu’il travaille en soins palliatifs, il est confronté à de mines grises, ce qui le pèse[7]. Il décide alors de se lancer dans le dessin[7]. Il veut montrer au plus grand nombre sa vision de son métier, une vision qui est avant tout humaniste[7]. Il sort une bande dessinée pour rendre hommage à certains résidents qui ont marqué sa carrière : À la vie ![7],[8] publié dans la collection « Graphic » aux éditions Calmann-Lévy en 2020. Selon La Libre Belgique[9] : « Un roman graphique d’une douce humanité, traversés de jolis clins d’œil (histoire de désamorcer la gravité de certains moments), habité par la bienveillance et beaucoup d’amour. Quand vie et mort se côtoient... »
-Dans Je serai là !, il raconte la naissance de sa vocation[4],[6],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xavier connu de son seul prénom naît le 28 octobre 1984 en Belgique. Il est originaire de Bruxelles. Il est nourri à la bande dessinée. 
+Il est étudiant en psychologie, puis il change d'orientation.
+Il a le corps couvert de tatouages. Il a ainsi des étoiles sur les bras, en hommage à son arrière-grand-mère ; le prénom de sa fille est sur la main gauche ; les membres de Queen sur les phalanges droites ; un bras consacré à Joseph Merrick, connu par le surnom d’Elephant Man. Il doit son nom de plume à une patiente qui le surnomme ainsi à cause de ses bras tatoués.
+Depuis 2017, il publie sur Instagram des tranches de vie de son quotidien avec ses patients. Des moments de joie, partagés avec eux et leurs proches, par la musique, une blague qui réussit à leur donner le sourire ou les faire rire... Il vise à casser les clichés qui collent aux soins palliatifs : « Les soins palliatifs font peur parce que le grand public est mal informé. C’est uniquement associé à la mort. Avant d’y travailler, je m’en faisais la même représentation, 'dans quel mouroir sinistre je vais atterrir ?' Mais beaucoup de patients y séjournent pour équilibrer un traitement et rentrent chez eux. »
+Lorsqu'il explique qu’il travaille en soins palliatifs, il est confronté à de mines grises, ce qui le pèse. Il décide alors de se lancer dans le dessin. Il veut montrer au plus grand nombre sa vision de son métier, une vision qui est avant tout humaniste. Il sort une bande dessinée pour rendre hommage à certains résidents qui ont marqué sa carrière : À la vie !, publié dans la collection « Graphic » aux éditions Calmann-Lévy en 2020. Selon La Libre Belgique : « Un roman graphique d’une douce humanité, traversés de jolis clins d’œil (histoire de désamorcer la gravité de certains moments), habité par la bienveillance et beaucoup d’amour. Quand vie et mort se côtoient... »
+Dans Je serai là !, il raconte la naissance de sa vocation.
 En 2023, il réalise son troisième roman graphique Je suis au-delà de la mort ! publié aux éditions Le Lombard. L'année suivante, il sort son quatrième roman graphique Constellation publié chez le même éditeur.
 Il vit et travaille à Metz en 2024.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Homme_%C3%A9toil%C3%A9</t>
+          <t>L'Homme_étoilé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,13 +565,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans graphiques
-L'Homme étoilé
-1 À la vie[9],[8] !, Calmann-Lévy, coll. « Graphic », Paris, 8 janvier 2020Scénario et dessin : L'Homme étoilé - Couleurs : bichromie -  (ISBN 978-2-7021-6732-8),réédition Le Livre de poche en 2021  (ISBN 978-2-253-08203-3).
-2 Je serai là[4],[6],[5] !, Calmann-Lévy, coll. « Graphic », Paris, 20 janvier 2020Scénario et dessin : L'Homme étoilé - Couleurs : noir et blanc -  (ISBN 978-2-7021-8066-2),,Mention spéciale du Prix international de la bande dessinée chrétienne d'Angoulême 2022.
+          <t>Romans graphiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>L'Homme étoilé</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1 À la vie, !, Calmann-Lévy, coll. « Graphic », Paris, 8 janvier 2020Scénario et dessin : L'Homme étoilé - Couleurs : bichromie -  (ISBN 978-2-7021-6732-8),réédition Le Livre de poche en 2021  (ISBN 978-2-253-08203-3).
+2 Je serai là !, Calmann-Lévy, coll. « Graphic », Paris, 20 janvier 2020Scénario et dessin : L'Homme étoilé - Couleurs : noir et blanc -  (ISBN 978-2-7021-8066-2)Mention spéciale du Prix international de la bande dessinée chrétienne d'Angoulême 2022.
 Int. L'Homme étoilé - L'intégrale, Calmann-Lévy, coll. « Graphic », Paris, 13 octobre 2021Scénario, dessin et couleurs : L'Homme étoilé -  (ISBN 978-2-7021-8328-1),contient des chapitres et des bonus inédits révélant quelques secrets de création.
-Je suis au-delà de la mort[10],[11] !, Le Lombard, Bruxelles, 29 septembre 2023Scénario et dessin : L'Homme étoilé - Couleurs : Hélia -  (ISBN 978-2-8082-1001-0)
-Constellation[12],[13],[14],[15], Le Lombard, Bruxelles, 19 avril 2024Scénario, dessin et couleurs : L'Homme étoilé -  (ISBN 9782808213134)</t>
+Je suis au-delà de la mort, !, Le Lombard, Bruxelles, 29 septembre 2023Scénario et dessin : L'Homme étoilé - Couleurs : Hélia -  (ISBN 978-2-8082-1001-0)
+Constellation Le Lombard, Bruxelles, 19 avril 2024Scénario, dessin et couleurs : L'Homme étoilé -  (ISBN 9782808213134)</t>
         </is>
       </c>
     </row>
